--- a/documents/QLK.xlsx
+++ b/documents/QLK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD7A24B-45A8-4982-9A9B-4B7281D4D09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4688D483-626B-4A0D-8DBE-1C8B41194735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{9746AF7A-767E-4634-8887-A89AE755489A}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{64DB176C-6560-4559-9155-BBDB2955F811}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Mã sách</t>
   </si>
@@ -73,6 +73,27 @@
     <t>Võ Hoài Nam</t>
   </si>
   <si>
+    <t>B.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soul of the sea: In the Age of the Algorithm </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishan Degnarain Gregory Sstone </t>
+  </si>
+  <si>
+    <t>MIT Press</t>
+  </si>
+  <si>
+    <t>26/10/2020</t>
+  </si>
+  <si>
+    <t>Không có</t>
+  </si>
+  <si>
     <t>B.003</t>
   </si>
   <si>
@@ -86,6 +107,45 @@
   </si>
   <si>
     <t>24/10/2020</t>
+  </si>
+  <si>
+    <t>B.004</t>
+  </si>
+  <si>
+    <t>Python Crash Course</t>
+  </si>
+  <si>
+    <t>Eric Matthews</t>
+  </si>
+  <si>
+    <t>NXB Tuổi trẻ</t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>B.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Head-First Python</t>
+  </si>
+  <si>
+    <t>Paul Barry</t>
+  </si>
+  <si>
+    <t>NXB Hà Nội</t>
+  </si>
+  <si>
+    <t>B.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Learn Python the Hard Way</t>
+  </si>
+  <si>
+    <t>Zed A. Shaw</t>
+  </si>
+  <si>
+    <t>18/10/2020</t>
   </si>
 </sst>
 </file>
@@ -437,8 +497,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D1551C-DD7F-4C98-8799-DCC58F03DF67}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA122CC-9003-4584-8EB2-AEDE9BD134A3}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,21 +582,149 @@
         <v>20</v>
       </c>
       <c r="E3">
+        <v>2017</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>220000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
         <v>2012</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
         <v>125000</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>2013</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>100000</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>2011</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>130000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>2012</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>910000</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
       </c>
     </row>
